--- a/Data/Diverse/Jordpris.xlsx
+++ b/Data/Diverse/Jordpris.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dkcu2103-my.sharepoint.com/personal/psp_dreamgruppen_dk/Documents/Projekter/GronREFORM/Landbrug/HistoriskAnalyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psp\LandbrugHistorieKalibrering\Data\Diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{47EBC3BB-F0CF-4B1A-AD72-1FE8135C016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831D38EC-75E3-4735-9549-2BC4E862B80C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887EB732-BB79-4EDC-B02E-F204CA9A4998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LPRIS35" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Prices at agricultural input by unit, product and time</t>
   </si>
@@ -133,28 +133,7 @@
     <t>Jordpris</t>
   </si>
   <si>
-    <t>Vækst i jordpris</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>rente</t>
-  </si>
-  <si>
-    <t>Vækst</t>
-  </si>
-  <si>
-    <t>Vækst jord</t>
-  </si>
-  <si>
-    <t>Vækst DB</t>
+    <t>User-cost</t>
   </si>
 </sst>
 </file>
@@ -241,7 +220,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -273,6 +252,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3831,6 +3812,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nettoudbytte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$12:$AS$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$13:$AS$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>670.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3171.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2290.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1628.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1177.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3149.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1755.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2065.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1109.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1398.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1230.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1424.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1963.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>830.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>863.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3011.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3741.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1475.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1697.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2396.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4054.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2518.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-327.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4644.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5456.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8237.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7082</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4867.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3621.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3671.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7361.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2979.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8763.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8538.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7276.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13083.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9943</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10669.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7BE-44ED-8D01-64091DC68D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User-cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$12:$AS$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$14:$AS$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-683.09498236700892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.10760973160177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4049.5384640582079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8641.5433467863513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8161.5391403128297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6435.3618241471522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5140.1423776247266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12008.295003631378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3056.3759935185735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7287.2104069411562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5405.4785635465487</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3409.0058156359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3287.5519148127514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3449.919604558967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5826.7819476820077</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3395.3476524554681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3361.3884253385086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-866.8786001874696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5717.3658846254348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4950.9668685463384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3564.2306749217851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8098.5063775198569</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10670.539058209324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-31362.088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-27060.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-27889.729350000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56545.7624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44531.801310000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46044.973420000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1244.33195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15850.638768000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9741.8284160000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10925.762596</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9332.2537780000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2364.8800719999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2657.410175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>582.74520800000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>346.27727499999992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5296.1702500000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10205.119325</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8153.6638999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3828.7259700000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7BE-44ED-8D01-64091DC68D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1862881488"/>
+        <c:axId val="1862882928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1862881488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862882928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1862882928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862881488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3951,6 +4760,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4984,6 +5833,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5741,6 +7106,47 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2359A4C-075E-0BCF-B14A-B4F5A4A67250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7849,10 +9255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F17FB7-582E-429E-9D18-6DB1AD9E632F}">
-  <dimension ref="A2:BB37"/>
+  <dimension ref="A2:BB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,7 +9649,7 @@
         <v>1983</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:AS6" si="1">D6+1</f>
+        <f t="shared" ref="E6:AT6" si="1">D6+1</f>
         <v>1984</v>
       </c>
       <c r="F6">
@@ -8407,8 +9813,8 @@
         <v>2024</v>
       </c>
       <c r="AT6">
-        <f>AS6-N6</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -8420,7 +9826,7 @@
         <v>2043.3</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:AV7" si="2">M3</f>
+        <f t="shared" ref="D7:AS7" si="2">M3</f>
         <v>670.5</v>
       </c>
       <c r="E7">
@@ -8774,3474 +10180,702 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>C7/C8</f>
-        <v>4.4588709548796845E-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:AS9" si="3">D7/D8</f>
-        <v>1.2941365312562722E-2</v>
-      </c>
-      <c r="E9">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:D9" si="3">D9</f>
+        <v>0.1157</v>
+      </c>
+      <c r="D9" s="15">
         <f t="shared" si="3"/>
-        <v>5.5492777882314964E-2</v>
+        <v>0.1157</v>
+      </c>
+      <c r="E9" s="15">
+        <f>F9</f>
+        <v>0.1157</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>3.3779325820940724E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>2.4668416940962647E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>6.6724673748716126E-3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1.802695628192523E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>4.7356141374447026E-2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>2.8512080260788955E-2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>3.2169033425252382E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>1.7689122213320994E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>2.2601546649525746E-2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>1.9435912238697658E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>1.9836162640552119E-2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>2.6693244574351682E-2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>2.3928971163886901E-2</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>9.0705880671947403E-3</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>8.6822511894636516E-3</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>2.8415817536961398E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>3.1952106737545186E-2</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>1.2495583945475836E-2</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="3"/>
-        <v>9.2010417539692916E-3</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="3"/>
-        <v>1.2782187135679813E-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="3"/>
-        <v>1.6193918918918918E-2</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="3"/>
-        <v>2.1917297297297297E-2</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="3"/>
-        <v>1.1446883949270421E-2</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="3"/>
-        <v>8.4912076168269703E-3</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="3"/>
-        <v>-1.5575448788152945E-3</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="3"/>
-        <v>2.7068812792838993E-2</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="3"/>
-        <v>4.1905705442788134E-2</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="3"/>
-        <v>6.3013562407728971E-2</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="3"/>
-        <v>6.0451379404534281E-2</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="3"/>
-        <v>3.7944608572965305E-2</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="3"/>
-        <v>2.5894070038465385E-2</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="3"/>
-        <v>2.804470041858902E-2</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="3"/>
-        <v>5.7113819561355195E-2</v>
-      </c>
-      <c r="AM9">
-        <f t="shared" si="3"/>
-        <v>2.2553539390911363E-2</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="3"/>
-        <v>6.6765967497390499E-2</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="3"/>
-        <v>6.5490132916101021E-2</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="3"/>
-        <v>5.3722748447778162E-2</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="3"/>
-        <v>8.8632883950951841E-2</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="3"/>
-        <v>6.2298327725669317E-2</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="3"/>
-        <v>6.3664572182142581E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11">
         <f>LPRIS35!F18</f>
         <v>0.1157</v>
       </c>
-      <c r="G11">
+      <c r="G9">
         <f>LPRIS35!G18</f>
         <v>0.1007</v>
       </c>
-      <c r="H11">
+      <c r="H9">
         <f>LPRIS35!H18</f>
         <v>0.1129</v>
       </c>
-      <c r="I11">
+      <c r="I9">
         <f>LPRIS35!I18</f>
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="J11">
+      <c r="J9">
         <f>LPRIS35!J18</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="K11">
+      <c r="K9">
         <f>LPRIS35!K18</f>
         <v>0.10630000000000001</v>
       </c>
-      <c r="L11">
+      <c r="L9">
         <f>LPRIS35!L18</f>
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="M11">
+      <c r="M9">
         <f>LPRIS35!M18</f>
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="N11">
+      <c r="N9">
         <f>LPRIS35!N18</f>
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="O11">
+      <c r="O9">
         <f>LPRIS35!O18</f>
         <v>7.85E-2</v>
       </c>
-      <c r="P11">
+      <c r="P9">
         <f>LPRIS35!P18</f>
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q9">
         <f>LPRIS35!Q18</f>
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="R11">
+      <c r="R9">
         <f>LPRIS35!R18</f>
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="S11">
+      <c r="S9">
         <f>LPRIS35!S18</f>
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="T11">
+      <c r="T9">
         <f>LPRIS35!T18</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="U11">
+      <c r="U9">
         <f>LPRIS35!U18</f>
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="V11">
+      <c r="V9">
         <f>LPRIS35!V18</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="W11">
+      <c r="W9">
         <f>LPRIS35!W18</f>
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="X11">
+      <c r="X9">
         <f>LPRIS35!X18</f>
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y9">
         <f>LPRIS35!Y18</f>
         <v>4.3034000000000003E-2</v>
       </c>
-      <c r="Z11">
+      <c r="Z9">
         <f>LPRIS35!Z18</f>
         <v>3.397E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AA9">
         <f>LPRIS35!AA18</f>
         <v>3.8094000000000003E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AB9">
         <f>LPRIS35!AB18</f>
         <v>4.2861999999999997E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AC9">
         <f>LPRIS35!AC18</f>
         <v>4.2935000000000001E-2</v>
       </c>
-      <c r="AD11">
+      <c r="AD9">
         <f>LPRIS35!AD18</f>
         <v>3.5872000000000001E-2</v>
       </c>
-      <c r="AE11">
+      <c r="AE9">
         <f>LPRIS35!AE18</f>
         <v>2.9131000000000001E-2</v>
       </c>
-      <c r="AF11">
+      <c r="AF9">
         <f>LPRIS35!AF18</f>
         <v>2.7144999999999999E-2</v>
       </c>
-      <c r="AG11">
+      <c r="AG9">
         <f>LPRIS35!AG18</f>
         <v>1.355E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AH9">
         <f>LPRIS35!AH18</f>
         <v>1.7392000000000001E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AI9">
         <f>LPRIS35!AI18</f>
         <v>1.1892E-2</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ9">
         <f>LPRIS35!AJ18</f>
         <v>5.0920000000000002E-3</v>
       </c>
-      <c r="AK11">
+      <c r="AK9">
         <f>LPRIS35!AK18</f>
         <v>2.7330000000000002E-3</v>
       </c>
-      <c r="AL11">
+      <c r="AL9">
         <f>LPRIS35!AL18</f>
         <v>2.6419999999999998E-3</v>
       </c>
-      <c r="AM11">
+      <c r="AM9">
         <f>LPRIS35!AM18</f>
         <v>4.2249999999999996E-3</v>
       </c>
-      <c r="AN11">
+      <c r="AN9">
         <f>LPRIS35!AN18</f>
         <v>-2.0079999999999998E-3</v>
       </c>
-      <c r="AO11">
+      <c r="AO9">
         <f>LPRIS35!AO18</f>
         <v>-3.9750000000000002E-3</v>
       </c>
-      <c r="AP11">
+      <c r="AP9">
         <f>LPRIS35!AP18</f>
         <v>-1.75E-3</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ9">
         <f>LPRIS35!AQ18</f>
         <v>1.4425E-2</v>
       </c>
-      <c r="AR11">
+      <c r="AR9">
         <f>LPRIS35!AR18</f>
         <v>2.6009999999999998E-2</v>
       </c>
-      <c r="AS11">
+      <c r="AS9">
         <f>LPRIS35!AS18</f>
         <v>2.6009999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
+      <c r="D12">
+        <v>1983</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="4">D12+1</f>
+        <v>1984</v>
       </c>
       <c r="F12">
-        <f>F8/E8-1</f>
-        <v>0.1865494036546671</v>
+        <f t="shared" ref="F12" si="5">E12+1</f>
+        <v>1985</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:AS12" si="4">G8/F8-1</f>
-        <v>-2.6719576719576921E-2</v>
+        <f t="shared" ref="G12" si="6">F12+1</f>
+        <v>1986</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
-        <v>-1.0745673643200115E-2</v>
+        <f t="shared" ref="H12" si="7">G12+1</f>
+        <v>1987</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
-        <v>1.4654161781924024E-4</v>
+        <f t="shared" ref="I12" si="8">H12+1</f>
+        <v>1988</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>1.829353442256676E-2</v>
+        <f t="shared" ref="J12" si="9">I12+1</f>
+        <v>1989</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
-        <v>-7.4269179137596786E-2</v>
+        <f t="shared" ref="K12" si="10">J12+1</f>
+        <v>1990</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
-        <v>4.3053992118526674E-2</v>
+        <f t="shared" ref="L12" si="11">K12+1</f>
+        <v>1991</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
-        <v>-2.358333018237746E-2</v>
+        <f t="shared" ref="M12" si="12">L12+1</f>
+        <v>1992</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>-1.3412398279741833E-2</v>
+        <f t="shared" ref="N12" si="13">M12+1</f>
+        <v>1993</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>2.3390348350905255E-2</v>
+        <f t="shared" ref="O12" si="14">N12+1</f>
+        <v>1994</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
-        <v>0.13463154299127367</v>
+        <f t="shared" ref="P12" si="15">O12+1</f>
+        <v>1995</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>2.3869984297542945E-2</v>
+        <f t="shared" ref="Q12" si="16">P12+1</f>
+        <v>1996</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
-        <v>0.14182964475110449</v>
+        <f t="shared" ref="R12" si="17">Q12+1</f>
+        <v>1997</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
-        <v>9.0733550346858705E-2</v>
+        <f t="shared" ref="S12" si="18">R12+1</f>
+        <v>1998</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
-        <v>8.60992895282644E-2</v>
+        <f t="shared" ref="T12" si="19">S12+1</f>
+        <v>1999</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
-        <v>6.5314203725365561E-2</v>
+        <f t="shared" ref="U12" si="20">T12+1</f>
+        <v>2000</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
-        <v>0.10484953369514649</v>
+        <f t="shared" ref="V12" si="21">U12+1</f>
+        <v>2001</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
-        <v>8.2157538121878648E-3</v>
+        <f t="shared" ref="W12" si="22">V12+1</f>
+        <v>2002</v>
       </c>
       <c r="X12">
-        <f t="shared" si="4"/>
-        <v>1.2907373330943495E-2</v>
+        <f t="shared" ref="X12" si="23">W12+1</f>
+        <v>2003</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>0.11076231787342916</v>
+        <f t="shared" ref="Y12" si="24">X12+1</f>
+        <v>2004</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
-        <v>0.11430976973588525</v>
+        <f t="shared" ref="Z12" si="25">Y12+1</f>
+        <v>2005</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f t="shared" ref="AA12" si="26">Z12+1</f>
+        <v>2006</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="4"/>
-        <v>0.18913513513513514</v>
+        <f t="shared" ref="AB12" si="27">AA12+1</f>
+        <v>2007</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>0.16971225964816572</v>
+        <f t="shared" ref="AC12" si="28">AB12+1</f>
+        <v>2008</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="4"/>
-        <v>-0.18387253473234233</v>
+        <f t="shared" ref="AD12" si="29">AC12+1</f>
+        <v>2009</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="4"/>
-        <v>-0.18291509928098659</v>
+        <f t="shared" ref="AE12" si="30">AD12+1</f>
+        <v>2010</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
-        <v>-0.24118860579500689</v>
+        <f t="shared" ref="AF12" si="31">AE12+1</f>
+        <v>2011</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="4"/>
-        <v>3.9935795528727169E-3</v>
+        <f t="shared" ref="AG12" si="32">AF12+1</f>
+        <v>2012</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="4"/>
-        <v>-0.1038560686611234</v>
+        <f t="shared" ref="AH12" si="33">AG12+1</f>
+        <v>2013</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="4"/>
-        <v>9.5047459710461579E-2</v>
+        <f t="shared" ref="AI12" si="34">AH12+1</f>
+        <v>2014</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="4"/>
-        <v>9.02585608830202E-2</v>
+        <f t="shared" ref="AJ12" si="35">AI12+1</f>
+        <v>2015</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="4"/>
-        <v>-6.398981882659116E-2</v>
+        <f t="shared" ref="AK12" si="36">AJ12+1</f>
+        <v>2016</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="4"/>
-        <v>-1.5422102722356335E-2</v>
+        <f t="shared" ref="AL12" si="37">AK12+1</f>
+        <v>2017</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="4"/>
-        <v>2.4841540144456387E-2</v>
+        <f t="shared" ref="AM12" si="38">AL12+1</f>
+        <v>2018</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="4"/>
-        <v>-6.4194278533523663E-3</v>
+        <f t="shared" ref="AN12" si="39">AM12+1</f>
+        <v>2019</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="4"/>
-        <v>-6.6132829464156107E-3</v>
+        <f t="shared" ref="AO12" si="40">AN12+1</f>
+        <v>2020</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="4"/>
-        <v>3.8870098095610706E-2</v>
+        <f t="shared" ref="AP12" si="41">AO12+1</f>
+        <v>2021</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="4"/>
-        <v>8.9766779130460383E-2</v>
+        <f t="shared" ref="AQ12" si="42">AP12+1</f>
+        <v>2022</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="4"/>
-        <v>8.1247882934760485E-2</v>
+        <f t="shared" ref="AR12" si="43">AQ12+1</f>
+        <v>2023</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="4"/>
-        <v>4.9999060168042009E-2</v>
+        <f t="shared" ref="AS12" si="44">AR12+1</f>
+        <v>2024</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <f>D7</f>
+        <v>670.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:AT13" si="45">E7</f>
+        <v>3171.8</v>
       </c>
       <c r="F13">
-        <f>F11-F12</f>
-        <v>-7.0849403654667104E-2</v>
+        <f t="shared" si="45"/>
+        <v>2290.9</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:AS13" si="5">G11-G12</f>
-        <v>0.12741957671957693</v>
+        <f t="shared" si="45"/>
+        <v>1628.3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
-        <v>0.12364567364320012</v>
+        <f t="shared" si="45"/>
+        <v>435.7</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
-        <v>9.8553458382180756E-2</v>
+        <f t="shared" si="45"/>
+        <v>1177.3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
-        <v>7.8706465577433243E-2</v>
+        <f t="shared" si="45"/>
+        <v>3149.3</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
-        <v>0.18056917913759679</v>
+        <f t="shared" si="45"/>
+        <v>1755.3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="5"/>
-        <v>4.9646007881473331E-2</v>
+        <f t="shared" si="45"/>
+        <v>2065.6999999999998</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
-        <v>0.11348333018237745</v>
+        <f t="shared" si="45"/>
+        <v>1109.0999999999999</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>8.6212398279741836E-2</v>
+        <f t="shared" si="45"/>
+        <v>1398.1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="5"/>
-        <v>5.5109651649094746E-2</v>
+        <f t="shared" si="45"/>
+        <v>1230.4000000000001</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
-        <v>-5.1931542991273671E-2</v>
+        <f t="shared" si="45"/>
+        <v>1424.8</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>4.803001570245706E-2</v>
+        <f t="shared" si="45"/>
+        <v>1963.1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
-        <v>-7.9229644751104486E-2</v>
+        <f t="shared" si="45"/>
+        <v>2009.4</v>
       </c>
       <c r="S13">
-        <f t="shared" si="5"/>
-        <v>-4.0433550346858707E-2</v>
+        <f t="shared" si="45"/>
+        <v>830.8</v>
       </c>
       <c r="T13">
-        <f t="shared" si="5"/>
-        <v>-3.66992895282644E-2</v>
+        <f t="shared" si="45"/>
+        <v>863.7</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
-        <v>-8.714203725365563E-3</v>
+        <f t="shared" si="45"/>
+        <v>3011.4</v>
       </c>
       <c r="V13">
-        <f t="shared" si="5"/>
-        <v>-5.394953369514649E-2</v>
+        <f t="shared" si="45"/>
+        <v>3741.2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
-        <v>4.2284246187812138E-2</v>
+        <f t="shared" si="45"/>
+        <v>1475.1</v>
       </c>
       <c r="X13">
-        <f t="shared" si="5"/>
-        <v>3.0192626669056505E-2</v>
+        <f t="shared" si="45"/>
+        <v>1100.2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="5"/>
-        <v>-6.7728317873429159E-2</v>
+        <f t="shared" si="45"/>
+        <v>1697.7</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="5"/>
-        <v>-8.0339769735885247E-2</v>
+        <f t="shared" si="45"/>
+        <v>2396.6999999999998</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
-        <v>-0.21190599999999998</v>
+        <f t="shared" si="45"/>
+        <v>4054.7</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
-        <v>-0.14627313513513512</v>
+        <f t="shared" si="45"/>
+        <v>2518.1999999999998</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
-        <v>-0.12677725964816572</v>
+        <f t="shared" si="45"/>
+        <v>2185</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="5"/>
-        <v>0.21974453473234234</v>
+        <f t="shared" si="45"/>
+        <v>-327.10000000000002</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="5"/>
-        <v>0.21204609928098658</v>
+        <f t="shared" si="45"/>
+        <v>4644.8999999999996</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="5"/>
-        <v>0.26833360579500687</v>
+        <f t="shared" si="45"/>
+        <v>5456.5</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="5"/>
-        <v>9.5564204471272826E-3</v>
+        <f t="shared" si="45"/>
+        <v>8237.7000000000007</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="5"/>
-        <v>0.12124806866112341</v>
+        <f t="shared" si="45"/>
+        <v>7082</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="5"/>
-        <v>-8.3155459710461579E-2</v>
+        <f t="shared" si="45"/>
+        <v>4867.8</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="5"/>
-        <v>-8.5166560883020201E-2</v>
+        <f t="shared" si="45"/>
+        <v>3621.7</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="5"/>
-        <v>6.672281882659116E-2</v>
+        <f t="shared" si="45"/>
+        <v>3671.5</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="5"/>
-        <v>1.8064102722356333E-2</v>
+        <f t="shared" si="45"/>
+        <v>7361.8</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="5"/>
-        <v>-2.0616540144456387E-2</v>
+        <f t="shared" si="45"/>
+        <v>2979.3</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>4.411427853352367E-3</v>
+        <f t="shared" si="45"/>
+        <v>8763.1</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="5"/>
-        <v>2.6382829464156104E-3</v>
+        <f t="shared" si="45"/>
+        <v>8538.7999999999993</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="5"/>
-        <v>-4.0620098095610707E-2</v>
+        <f t="shared" si="45"/>
+        <v>7276.8</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="5"/>
-        <v>-7.534177913046039E-2</v>
+        <f t="shared" si="45"/>
+        <v>13083.1</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="5"/>
-        <v>-5.5237882934760486E-2</v>
+        <f t="shared" si="45"/>
+        <v>9943</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="5"/>
-        <v>-2.398906016804201E-2</v>
-      </c>
+        <f t="shared" si="45"/>
+        <v>10669.1</v>
+      </c>
+      <c r="AT13" s="16"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f>F6</f>
-        <v>1985</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:AS15" si="6">G6</f>
-        <v>1986</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>1987</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>1988</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>1989</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="6"/>
-        <v>1990</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="6"/>
-        <v>1991</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="6"/>
-        <v>1992</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>1993</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>1994</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="6"/>
-        <v>1995</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>1996</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>1997</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>1998</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
-        <v>1999</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="6"/>
-        <v>2001</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>2002</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="6"/>
-        <v>2003</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="6"/>
-        <v>2004</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="6"/>
-        <v>2005</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="6"/>
-        <v>2006</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="6"/>
-        <v>2007</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="6"/>
-        <v>2008</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="6"/>
-        <v>2009</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="6"/>
-        <v>2010</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="6"/>
-        <v>2011</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="6"/>
-        <v>2012</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="6"/>
-        <v>2013</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="6"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="6"/>
-        <v>2015</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="6"/>
-        <v>2016</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="6"/>
-        <v>2017</v>
-      </c>
-      <c r="AM15">
-        <f t="shared" si="6"/>
-        <v>2018</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="6"/>
-        <v>2019</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="6"/>
-        <v>2020</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="6"/>
-        <v>2022</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="6"/>
-        <v>2023</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="6"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <f>F9</f>
-        <v>3.3779325820940724E-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:AS16" si="7">G9</f>
-        <v>2.4668416940962647E-2</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
-        <v>6.6724673748716126E-3</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="7"/>
-        <v>1.802695628192523E-2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>4.7356141374447026E-2</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>2.8512080260788955E-2</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="7"/>
-        <v>3.2169033425252382E-2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="7"/>
-        <v>1.7689122213320994E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>2.2601546649525746E-2</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
-        <v>1.9435912238697658E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="7"/>
-        <v>1.9836162640552119E-2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>2.6693244574351682E-2</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="7"/>
-        <v>2.3928971163886901E-2</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="7"/>
-        <v>9.0705880671947403E-3</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="7"/>
-        <v>8.6822511894636516E-3</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="7"/>
-        <v>2.8415817536961398E-2</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="7"/>
-        <v>3.1952106737545186E-2</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="7"/>
-        <v>1.2495583945475836E-2</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>9.2010417539692916E-3</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="7"/>
-        <v>1.2782187135679813E-2</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="7"/>
-        <v>1.6193918918918918E-2</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="7"/>
-        <v>2.1917297297297297E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="7"/>
-        <v>1.1446883949270421E-2</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="7"/>
-        <v>8.4912076168269703E-3</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="7"/>
-        <v>-1.5575448788152945E-3</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="7"/>
-        <v>2.7068812792838993E-2</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="7"/>
-        <v>4.1905705442788134E-2</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="7"/>
-        <v>6.3013562407728971E-2</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="7"/>
-        <v>6.0451379404534281E-2</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="7"/>
-        <v>3.7944608572965305E-2</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="7"/>
-        <v>2.5894070038465385E-2</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="7"/>
-        <v>2.804470041858902E-2</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="7"/>
-        <v>5.7113819561355195E-2</v>
-      </c>
-      <c r="AM16">
-        <f t="shared" si="7"/>
-        <v>2.2553539390911363E-2</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="7"/>
-        <v>6.6765967497390499E-2</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="7"/>
-        <v>6.5490132916101021E-2</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="7"/>
-        <v>5.3722748447778162E-2</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="7"/>
-        <v>8.8632883950951841E-2</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="7"/>
-        <v>6.2298327725669317E-2</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="7"/>
-        <v>6.3664572182142581E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
-        <f>F13</f>
-        <v>-7.0849403654667104E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:AS17" si="8">G13</f>
-        <v>0.12741957671957693</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="8"/>
-        <v>0.12364567364320012</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="8"/>
-        <v>9.8553458382180756E-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="8"/>
-        <v>7.8706465577433243E-2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="8"/>
-        <v>0.18056917913759679</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>4.9646007881473331E-2</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="8"/>
-        <v>0.11348333018237745</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
-        <v>8.6212398279741836E-2</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="8"/>
-        <v>5.5109651649094746E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="8"/>
-        <v>-5.1931542991273671E-2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>4.803001570245706E-2</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="8"/>
-        <v>-7.9229644751104486E-2</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="8"/>
-        <v>-4.0433550346858707E-2</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="8"/>
-        <v>-3.66992895282644E-2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="8"/>
-        <v>-8.714203725365563E-3</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="8"/>
-        <v>-5.394953369514649E-2</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="8"/>
-        <v>4.2284246187812138E-2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="8"/>
-        <v>3.0192626669056505E-2</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="8"/>
-        <v>-6.7728317873429159E-2</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="8"/>
-        <v>-8.0339769735885247E-2</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="8"/>
-        <v>-0.21190599999999998</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="8"/>
-        <v>-0.14627313513513512</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="8"/>
-        <v>-0.12677725964816572</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="8"/>
-        <v>0.21974453473234234</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="8"/>
-        <v>0.21204609928098658</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="8"/>
-        <v>0.26833360579500687</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="8"/>
-        <v>9.5564204471272826E-3</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="8"/>
-        <v>0.12124806866112341</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="8"/>
-        <v>-8.3155459710461579E-2</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="8"/>
-        <v>-8.5166560883020201E-2</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="8"/>
-        <v>6.672281882659116E-2</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="8"/>
-        <v>1.8064102722356333E-2</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="8"/>
-        <v>-2.0616540144456387E-2</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="8"/>
-        <v>4.411427853352367E-3</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="8"/>
-        <v>2.6382829464156104E-3</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="8"/>
-        <v>-4.0620098095610707E-2</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="8"/>
-        <v>-7.534177913046039E-2</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="8"/>
-        <v>-5.5237882934760486E-2</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="8"/>
-        <v>-2.398906016804201E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <f>F15</f>
-        <v>1985</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:AS19" si="9">G15</f>
-        <v>1986</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="9"/>
-        <v>1987</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="9"/>
-        <v>1988</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="9"/>
-        <v>1989</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="9"/>
-        <v>1990</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="9"/>
-        <v>1991</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="9"/>
-        <v>1992</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="9"/>
-        <v>1993</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="9"/>
-        <v>1994</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="9"/>
-        <v>1995</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="9"/>
-        <v>1996</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="9"/>
-        <v>1997</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="9"/>
-        <v>1998</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="9"/>
-        <v>1999</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="9"/>
-        <v>2001</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="9"/>
-        <v>2002</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="9"/>
-        <v>2003</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="9"/>
-        <v>2004</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="9"/>
-        <v>2005</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="9"/>
-        <v>2006</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>2007</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="9"/>
-        <v>2008</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="9"/>
-        <v>2009</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="9"/>
-        <v>2010</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="9"/>
-        <v>2011</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="9"/>
-        <v>2012</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="9"/>
-        <v>2013</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="9"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="9"/>
-        <v>2015</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="9"/>
-        <v>2016</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="9"/>
-        <v>2017</v>
-      </c>
-      <c r="AM19">
-        <f t="shared" si="9"/>
-        <v>2018</v>
-      </c>
-      <c r="AN19">
-        <f t="shared" si="9"/>
-        <v>2019</v>
-      </c>
-      <c r="AO19">
-        <f t="shared" si="9"/>
-        <v>2020</v>
-      </c>
-      <c r="AP19">
-        <f t="shared" si="9"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ19">
-        <f t="shared" si="9"/>
-        <v>2022</v>
-      </c>
-      <c r="AR19">
-        <f t="shared" si="9"/>
-        <v>2023</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="9"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="20" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20">
-        <f>LPRIS35!F18</f>
-        <v>0.1157</v>
-      </c>
-      <c r="G20">
-        <f>LPRIS35!G18</f>
-        <v>0.1007</v>
-      </c>
-      <c r="H20">
-        <f>LPRIS35!H18</f>
-        <v>0.1129</v>
-      </c>
-      <c r="I20">
-        <f>LPRIS35!I18</f>
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="J20">
-        <f>LPRIS35!J18</f>
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="K20">
-        <f>LPRIS35!K18</f>
-        <v>0.10630000000000001</v>
-      </c>
-      <c r="L20">
-        <f>LPRIS35!L18</f>
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="M20">
-        <f>LPRIS35!M18</f>
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="N20">
-        <f>LPRIS35!N18</f>
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="O20">
-        <f>LPRIS35!O18</f>
-        <v>7.85E-2</v>
-      </c>
-      <c r="P20">
-        <f>LPRIS35!P18</f>
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="Q20">
-        <f>LPRIS35!Q18</f>
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="R20">
-        <f>LPRIS35!R18</f>
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="S20">
-        <f>LPRIS35!S18</f>
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="T20">
-        <f>LPRIS35!T18</f>
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="U20">
-        <f>LPRIS35!U18</f>
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="V20">
-        <f>LPRIS35!V18</f>
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="W20">
-        <f>LPRIS35!W18</f>
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="X20">
-        <f>LPRIS35!X18</f>
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="Y20">
-        <f>LPRIS35!Y18</f>
-        <v>4.3034000000000003E-2</v>
-      </c>
-      <c r="Z20">
-        <f>LPRIS35!Z18</f>
-        <v>3.397E-2</v>
-      </c>
-      <c r="AA20">
-        <f>LPRIS35!AA18</f>
-        <v>3.8094000000000003E-2</v>
-      </c>
-      <c r="AB20">
-        <f>LPRIS35!AB18</f>
-        <v>4.2861999999999997E-2</v>
-      </c>
-      <c r="AC20">
-        <f>LPRIS35!AC18</f>
-        <v>4.2935000000000001E-2</v>
-      </c>
-      <c r="AD20">
-        <f>LPRIS35!AD18</f>
-        <v>3.5872000000000001E-2</v>
-      </c>
-      <c r="AE20">
-        <f>LPRIS35!AE18</f>
-        <v>2.9131000000000001E-2</v>
-      </c>
-      <c r="AF20">
-        <f>LPRIS35!AF18</f>
-        <v>2.7144999999999999E-2</v>
-      </c>
-      <c r="AG20">
-        <f>LPRIS35!AG18</f>
-        <v>1.355E-2</v>
-      </c>
-      <c r="AH20">
-        <f>LPRIS35!AH18</f>
-        <v>1.7392000000000001E-2</v>
-      </c>
-      <c r="AI20">
-        <f>LPRIS35!AI18</f>
-        <v>1.1892E-2</v>
-      </c>
-      <c r="AJ20">
-        <f>LPRIS35!AJ18</f>
-        <v>5.0920000000000002E-3</v>
-      </c>
-      <c r="AK20">
-        <f>LPRIS35!AK18</f>
-        <v>2.7330000000000002E-3</v>
-      </c>
-      <c r="AL20">
-        <f>LPRIS35!AL18</f>
-        <v>2.6419999999999998E-3</v>
-      </c>
-      <c r="AM20">
-        <f>LPRIS35!AM18</f>
-        <v>4.2249999999999996E-3</v>
-      </c>
-      <c r="AN20">
-        <f>LPRIS35!AN18</f>
-        <v>-2.0079999999999998E-3</v>
-      </c>
-      <c r="AO20">
-        <f>LPRIS35!AO18</f>
-        <v>-3.9750000000000002E-3</v>
-      </c>
-      <c r="AP20">
-        <f>LPRIS35!AP18</f>
-        <v>-1.75E-3</v>
-      </c>
-      <c r="AQ20">
-        <f>LPRIS35!AQ18</f>
-        <v>1.4425E-2</v>
-      </c>
-      <c r="AR20">
-        <f>LPRIS35!AR18</f>
-        <v>2.6009999999999998E-2</v>
-      </c>
-      <c r="AS20">
-        <f>LPRIS35!AS18</f>
-        <v>2.6009999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21">
-        <f>F8/E8-1</f>
-        <v>0.1865494036546671</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:AS21" si="10">G8/F8-1</f>
-        <v>-2.6719576719576921E-2</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="10"/>
-        <v>-1.0745673643200115E-2</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="10"/>
-        <v>1.4654161781924024E-4</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="10"/>
-        <v>1.829353442256676E-2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="10"/>
-        <v>-7.4269179137596786E-2</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>4.3053992118526674E-2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="10"/>
-        <v>-2.358333018237746E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
-        <v>-1.3412398279741833E-2</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="10"/>
-        <v>2.3390348350905255E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="10"/>
-        <v>0.13463154299127367</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="10"/>
-        <v>2.3869984297542945E-2</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="10"/>
-        <v>0.14182964475110449</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="10"/>
-        <v>9.0733550346858705E-2</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="10"/>
-        <v>8.60992895282644E-2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="10"/>
-        <v>6.5314203725365561E-2</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="10"/>
-        <v>0.10484953369514649</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="10"/>
-        <v>8.2157538121878648E-3</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="10"/>
-        <v>1.2907373330943495E-2</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="10"/>
-        <v>0.11076231787342916</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="10"/>
-        <v>0.11430976973588525</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="10"/>
-        <v>0.18913513513513514</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="10"/>
-        <v>0.16971225964816572</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="10"/>
-        <v>-0.18387253473234233</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="10"/>
-        <v>-0.18291509928098659</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="10"/>
-        <v>-0.24118860579500689</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="10"/>
-        <v>3.9935795528727169E-3</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="10"/>
-        <v>-0.1038560686611234</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="10"/>
-        <v>9.5047459710461579E-2</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="10"/>
-        <v>9.02585608830202E-2</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="10"/>
-        <v>-6.398981882659116E-2</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="10"/>
-        <v>-1.5422102722356335E-2</v>
-      </c>
-      <c r="AM21">
-        <f t="shared" si="10"/>
-        <v>2.4841540144456387E-2</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="10"/>
-        <v>-6.4194278533523663E-3</v>
-      </c>
-      <c r="AO21">
-        <f t="shared" si="10"/>
-        <v>-6.6132829464156107E-3</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="10"/>
-        <v>3.8870098095610706E-2</v>
-      </c>
-      <c r="AQ21">
-        <f t="shared" si="10"/>
-        <v>8.9766779130460383E-2</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="10"/>
-        <v>8.1247882934760485E-2</v>
-      </c>
-      <c r="AS21">
-        <f t="shared" si="10"/>
-        <v>4.9999060168042009E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <f>F19</f>
-        <v>1985</v>
-      </c>
-      <c r="G23">
-        <f>F23+1</f>
-        <v>1986</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:AS23" si="11">G23+1</f>
-        <v>1987</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="11"/>
-        <v>1988</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="11"/>
-        <v>1989</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="11"/>
-        <v>1990</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="11"/>
-        <v>1991</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="11"/>
-        <v>1992</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="11"/>
-        <v>1993</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="11"/>
-        <v>1994</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
-        <v>1995</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="11"/>
-        <v>1996</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="11"/>
-        <v>1997</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="11"/>
-        <v>1998</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="11"/>
-        <v>1999</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="11"/>
-        <v>2000</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="11"/>
-        <v>2001</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="11"/>
-        <v>2002</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="11"/>
-        <v>2003</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="11"/>
-        <v>2004</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="11"/>
-        <v>2005</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="11"/>
-        <v>2006</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="11"/>
-        <v>2007</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
-        <v>2008</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="11"/>
-        <v>2009</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="11"/>
-        <v>2010</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="11"/>
-        <v>2011</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="11"/>
-        <v>2012</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="11"/>
-        <v>2013</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="11"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="11"/>
-        <v>2015</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="11"/>
-        <v>2016</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="11"/>
-        <v>2017</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="11"/>
-        <v>2018</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="11"/>
-        <v>2019</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" si="11"/>
-        <v>2020</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="11"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ23">
-        <f t="shared" si="11"/>
-        <v>2022</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="11"/>
-        <v>2023</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="11"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="24" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24">
-        <f>F21</f>
-        <v>0.1865494036546671</v>
-      </c>
-      <c r="G24">
-        <f>G21</f>
-        <v>-2.6719576719576921E-2</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:AS24" si="12">H21</f>
-        <v>-1.0745673643200115E-2</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="12"/>
-        <v>1.4654161781924024E-4</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="12"/>
-        <v>1.829353442256676E-2</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="12"/>
-        <v>-7.4269179137596786E-2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="12"/>
-        <v>4.3053992118526674E-2</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="12"/>
-        <v>-2.358333018237746E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="12"/>
-        <v>-1.3412398279741833E-2</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="12"/>
-        <v>2.3390348350905255E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="12"/>
-        <v>0.13463154299127367</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="12"/>
-        <v>2.3869984297542945E-2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="12"/>
-        <v>0.14182964475110449</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="12"/>
-        <v>9.0733550346858705E-2</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="12"/>
-        <v>8.60992895282644E-2</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="12"/>
-        <v>6.5314203725365561E-2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="12"/>
-        <v>0.10484953369514649</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="12"/>
-        <v>8.2157538121878648E-3</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="12"/>
-        <v>1.2907373330943495E-2</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="12"/>
-        <v>0.11076231787342916</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="12"/>
-        <v>0.11430976973588525</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="12"/>
-        <v>0.18913513513513514</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="12"/>
-        <v>0.16971225964816572</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="12"/>
-        <v>-0.18387253473234233</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="12"/>
-        <v>-0.18291509928098659</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="12"/>
-        <v>-0.24118860579500689</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="12"/>
-        <v>3.9935795528727169E-3</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="12"/>
-        <v>-0.1038560686611234</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="12"/>
-        <v>9.5047459710461579E-2</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="12"/>
-        <v>9.02585608830202E-2</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="12"/>
-        <v>-6.398981882659116E-2</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="12"/>
-        <v>-1.5422102722356335E-2</v>
-      </c>
-      <c r="AM24">
-        <f t="shared" si="12"/>
-        <v>2.4841540144456387E-2</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="12"/>
-        <v>-6.4194278533523663E-3</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="12"/>
-        <v>-6.6132829464156107E-3</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="12"/>
-        <v>3.8870098095610706E-2</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="12"/>
-        <v>8.9766779130460383E-2</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="12"/>
-        <v>8.1247882934760485E-2</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="12"/>
-        <v>4.9999060168042009E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25">
-        <f>F7/E7-1</f>
-        <v>-0.27772873447253932</v>
-      </c>
-      <c r="G25">
-        <f>G7/F7-1</f>
-        <v>-0.28923130647343842</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:AS25" si="13">H7/G7-1</f>
-        <v>-0.73242031566664623</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="13"/>
-        <v>1.7020885930686251</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="13"/>
-        <v>1.6750191115263742</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="13"/>
-        <v>-0.44263804655002703</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="13"/>
-        <v>0.17683586851250488</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="13"/>
-        <v>-0.46308757321973182</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="13"/>
-        <v>0.26057163465873234</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="13"/>
-        <v>-0.11994850153780123</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="13"/>
-        <v>0.15799739921976585</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="13"/>
-        <v>0.37780741156653574</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="13"/>
-        <v>2.3585145942641939E-2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="13"/>
-        <v>-0.58654324674032055</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="13"/>
-        <v>3.9600385170919683E-2</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="13"/>
-        <v>2.4866273011462314</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="13"/>
-        <v>0.24234575280600379</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="13"/>
-        <v>-0.60571474393242808</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="13"/>
-        <v>-0.25415226086367015</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="13"/>
-        <v>0.54308307580439918</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="13"/>
-        <v>0.41173352182364353</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="13"/>
-        <v>0.6917845370718072</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="13"/>
-        <v>-0.37894295508915576</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="13"/>
-        <v>-0.1323167341752044</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="13"/>
-        <v>-1.1497025171624715</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="13"/>
-        <v>-15.200244573524914</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="13"/>
-        <v>0.17472927296604879</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="13"/>
-        <v>0.50970402272519033</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="13"/>
-        <v>-0.14029401410587916</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="13"/>
-        <v>-0.31265179327873482</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="13"/>
-        <v>-0.25598833148444888</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="13"/>
-        <v>1.3750448684319627E-2</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="13"/>
-        <v>1.0051205229470246</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="13"/>
-        <v>-0.5953027792116059</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="13"/>
-        <v>1.9413284999832174</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="13"/>
-        <v>-2.5595964898266765E-2</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="13"/>
-        <v>-0.14779594322387213</v>
-      </c>
-      <c r="AQ25">
-        <f t="shared" si="13"/>
-        <v>0.79791941512752862</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="13"/>
-        <v>-0.2400119237795324</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="13"/>
-        <v>7.3026249622850203E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>1983</v>
-      </c>
-      <c r="E28">
-        <f>D28+1</f>
-        <v>1984</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:AS28" si="14">E28+1</f>
-        <v>1985</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="14"/>
-        <v>1986</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="14"/>
-        <v>1987</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="14"/>
-        <v>1988</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="14"/>
-        <v>1989</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="14"/>
-        <v>1990</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="14"/>
-        <v>1991</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="14"/>
-        <v>1992</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="14"/>
-        <v>1993</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="14"/>
-        <v>1994</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="14"/>
-        <v>1995</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="14"/>
-        <v>1996</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="14"/>
-        <v>1997</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="14"/>
-        <v>1998</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="14"/>
-        <v>1999</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="14"/>
-        <v>2000</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="14"/>
-        <v>2001</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="14"/>
-        <v>2002</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="14"/>
-        <v>2003</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="14"/>
-        <v>2004</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="14"/>
-        <v>2005</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="14"/>
-        <v>2006</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="14"/>
-        <v>2007</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="14"/>
-        <v>2008</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="14"/>
-        <v>2009</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="14"/>
-        <v>2010</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="14"/>
-        <v>2011</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="14"/>
-        <v>2012</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="14"/>
-        <v>2013</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="14"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ28">
-        <f t="shared" si="14"/>
-        <v>2015</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="14"/>
-        <v>2016</v>
-      </c>
-      <c r="AL28">
-        <f t="shared" si="14"/>
-        <v>2017</v>
-      </c>
-      <c r="AM28">
-        <f t="shared" si="14"/>
-        <v>2018</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="14"/>
-        <v>2019</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="14"/>
-        <v>2020</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="14"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="14"/>
-        <v>2022</v>
-      </c>
-      <c r="AR28">
-        <f t="shared" si="14"/>
-        <v>2023</v>
-      </c>
-      <c r="AS28">
-        <f t="shared" si="14"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="29" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29">
-        <f>D7/C7-1</f>
-        <v>-0.6718543532520922</v>
-      </c>
-      <c r="E29">
-        <f>E7/D7-1</f>
-        <v>3.7304996271439226</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29:AS29" si="15">F7/E7-1</f>
-        <v>-0.27772873447253932</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="15"/>
-        <v>-0.28923130647343842</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="15"/>
-        <v>-0.73242031566664623</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="15"/>
-        <v>1.7020885930686251</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="15"/>
-        <v>1.6750191115263742</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="15"/>
-        <v>-0.44263804655002703</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="15"/>
-        <v>0.17683586851250488</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="15"/>
-        <v>-0.46308757321973182</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="15"/>
-        <v>0.26057163465873234</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="15"/>
-        <v>-0.11994850153780123</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="15"/>
-        <v>0.15799739921976585</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="15"/>
-        <v>0.37780741156653574</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="15"/>
-        <v>2.3585145942641939E-2</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="15"/>
-        <v>-0.58654324674032055</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="15"/>
-        <v>3.9600385170919683E-2</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="15"/>
-        <v>2.4866273011462314</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="15"/>
-        <v>0.24234575280600379</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="15"/>
-        <v>-0.60571474393242808</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="15"/>
-        <v>-0.25415226086367015</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="15"/>
-        <v>0.54308307580439918</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="15"/>
-        <v>0.41173352182364353</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="15"/>
-        <v>0.6917845370718072</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="15"/>
-        <v>-0.37894295508915576</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="15"/>
-        <v>-0.1323167341752044</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="15"/>
-        <v>-1.1497025171624715</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="15"/>
-        <v>-15.200244573524914</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="15"/>
-        <v>0.17472927296604879</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="15"/>
-        <v>0.50970402272519033</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="15"/>
-        <v>-0.14029401410587916</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="15"/>
-        <v>-0.31265179327873482</v>
-      </c>
-      <c r="AJ29">
-        <f t="shared" si="15"/>
-        <v>-0.25598833148444888</v>
-      </c>
-      <c r="AK29">
-        <f t="shared" si="15"/>
-        <v>1.3750448684319627E-2</v>
-      </c>
-      <c r="AL29">
-        <f t="shared" si="15"/>
-        <v>1.0051205229470246</v>
-      </c>
-      <c r="AM29">
-        <f t="shared" si="15"/>
-        <v>-0.5953027792116059</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="15"/>
-        <v>1.9413284999832174</v>
-      </c>
-      <c r="AO29">
-        <f t="shared" si="15"/>
-        <v>-2.5595964898266765E-2</v>
-      </c>
-      <c r="AP29">
-        <f t="shared" si="15"/>
-        <v>-0.14779594322387213</v>
-      </c>
-      <c r="AQ29">
-        <f t="shared" si="15"/>
-        <v>0.79791941512752862</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="15"/>
-        <v>-0.2400119237795324</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="15"/>
-        <v>7.3026249622850203E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <f>F28</f>
-        <v>1985</v>
-      </c>
-      <c r="G31">
-        <f>F31+1</f>
-        <v>1986</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31:AS31" si="16">G31+1</f>
-        <v>1987</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="16"/>
-        <v>1988</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="16"/>
-        <v>1989</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="16"/>
-        <v>1990</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="16"/>
-        <v>1991</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="16"/>
-        <v>1992</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="16"/>
-        <v>1993</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="16"/>
-        <v>1994</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="16"/>
-        <v>1995</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="16"/>
-        <v>1996</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="16"/>
-        <v>1997</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="16"/>
-        <v>1998</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="16"/>
-        <v>1999</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="16"/>
-        <v>2000</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="16"/>
-        <v>2001</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="16"/>
-        <v>2002</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="16"/>
-        <v>2003</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="16"/>
-        <v>2004</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="16"/>
-        <v>2005</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="16"/>
-        <v>2006</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="16"/>
-        <v>2007</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="16"/>
-        <v>2008</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="16"/>
-        <v>2009</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="16"/>
-        <v>2010</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="16"/>
-        <v>2011</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="16"/>
-        <v>2012</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="16"/>
-        <v>2013</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="16"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ31">
-        <f t="shared" si="16"/>
-        <v>2015</v>
-      </c>
-      <c r="AK31">
-        <f t="shared" si="16"/>
-        <v>2016</v>
-      </c>
-      <c r="AL31">
-        <f t="shared" si="16"/>
-        <v>2017</v>
-      </c>
-      <c r="AM31">
-        <f t="shared" si="16"/>
-        <v>2018</v>
-      </c>
-      <c r="AN31">
-        <f t="shared" si="16"/>
-        <v>2019</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" si="16"/>
-        <v>2020</v>
-      </c>
-      <c r="AP31">
-        <f t="shared" si="16"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ31">
-        <f t="shared" si="16"/>
-        <v>2022</v>
-      </c>
-      <c r="AR31">
-        <f t="shared" si="16"/>
-        <v>2023</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="16"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="32" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32">
-        <f>F24</f>
-        <v>0.1865494036546671</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:AS32" si="17">G24</f>
-        <v>-2.6719576719576921E-2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="17"/>
-        <v>-1.0745673643200115E-2</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="17"/>
-        <v>1.4654161781924024E-4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="17"/>
-        <v>1.829353442256676E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="17"/>
-        <v>-7.4269179137596786E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="17"/>
-        <v>4.3053992118526674E-2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="17"/>
-        <v>-2.358333018237746E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="17"/>
-        <v>-1.3412398279741833E-2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="17"/>
-        <v>2.3390348350905255E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="17"/>
-        <v>0.13463154299127367</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="17"/>
-        <v>2.3869984297542945E-2</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="17"/>
-        <v>0.14182964475110449</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="17"/>
-        <v>9.0733550346858705E-2</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="17"/>
-        <v>8.60992895282644E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="17"/>
-        <v>6.5314203725365561E-2</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="17"/>
-        <v>0.10484953369514649</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="17"/>
-        <v>8.2157538121878648E-3</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="17"/>
-        <v>1.2907373330943495E-2</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="17"/>
-        <v>0.11076231787342916</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="17"/>
-        <v>0.11430976973588525</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="17"/>
-        <v>0.18913513513513514</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="17"/>
-        <v>0.16971225964816572</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="17"/>
-        <v>-0.18387253473234233</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="17"/>
-        <v>-0.18291509928098659</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="17"/>
-        <v>-0.24118860579500689</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="17"/>
-        <v>3.9935795528727169E-3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="17"/>
-        <v>-0.1038560686611234</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="17"/>
-        <v>9.5047459710461579E-2</v>
-      </c>
-      <c r="AJ32">
-        <f t="shared" si="17"/>
-        <v>9.02585608830202E-2</v>
-      </c>
-      <c r="AK32">
-        <f t="shared" si="17"/>
-        <v>-6.398981882659116E-2</v>
-      </c>
-      <c r="AL32">
-        <f t="shared" si="17"/>
-        <v>-1.5422102722356335E-2</v>
-      </c>
-      <c r="AM32">
-        <f t="shared" si="17"/>
-        <v>2.4841540144456387E-2</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="17"/>
-        <v>-6.4194278533523663E-3</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" si="17"/>
-        <v>-6.6132829464156107E-3</v>
-      </c>
-      <c r="AP32">
-        <f t="shared" si="17"/>
-        <v>3.8870098095610706E-2</v>
-      </c>
-      <c r="AQ32">
-        <f t="shared" si="17"/>
-        <v>8.9766779130460383E-2</v>
-      </c>
-      <c r="AR32">
-        <f t="shared" si="17"/>
-        <v>8.1247882934760485E-2</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="17"/>
-        <v>4.9999060168042009E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:45" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33">
-        <f>AVERAGE(E29:G29)</f>
-        <v>1.0545131953993148</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:AR33" si="18">AVERAGE(F29:H29)</f>
-        <v>-0.43312678553754136</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="18"/>
-        <v>0.22681232364284684</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="18"/>
-        <v>0.88156246297611762</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="18"/>
-        <v>0.97815655268165747</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="18"/>
-        <v>0.46973897782961732</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="18"/>
-        <v>-0.24296325041908465</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="18"/>
-        <v>-8.5600233494981994E-3</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="18"/>
-        <v>-0.10748814669960023</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="18"/>
-        <v>9.9540177446898984E-2</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="18"/>
-        <v>0.13861876974950013</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="18"/>
-        <v>0.18646331890964785</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="18"/>
-        <v>-6.1716896410380952E-2</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="18"/>
-        <v>-0.1744525718755863</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="18"/>
-        <v>0.64656147985894352</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="18"/>
-        <v>0.92285781304105152</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="18"/>
-        <v>0.70775277000660253</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="18"/>
-        <v>-0.20584041733003147</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="18"/>
-        <v>-0.10559464299723302</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="18"/>
-        <v>0.23355477892145751</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="18"/>
-        <v>0.54886704489994997</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="18"/>
-        <v>0.24152503460209832</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="18"/>
-        <v>6.0174949269149014E-2</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="18"/>
-        <v>-0.55365406880894386</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="18"/>
-        <v>-5.4940879416208643</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="18"/>
-        <v>-5.3917392725737798</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="18"/>
-        <v>-4.8386037592778921</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="18"/>
-        <v>0.18137976052845331</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="18"/>
-        <v>1.891940511352545E-2</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="18"/>
-        <v>-0.23631137962302096</v>
-      </c>
-      <c r="AJ33">
-        <f t="shared" si="18"/>
-        <v>-0.18496322535962137</v>
-      </c>
-      <c r="AK33">
-        <f t="shared" si="18"/>
-        <v>0.25429421338229846</v>
-      </c>
-      <c r="AL33">
-        <f t="shared" si="18"/>
-        <v>0.1411893974732461</v>
-      </c>
-      <c r="AM33">
-        <f t="shared" si="18"/>
-        <v>0.78371541457287874</v>
-      </c>
-      <c r="AN33">
-        <f t="shared" si="18"/>
-        <v>0.44014325195778153</v>
-      </c>
-      <c r="AO33">
-        <f t="shared" si="18"/>
-        <v>0.58931219728702622</v>
-      </c>
-      <c r="AP33">
-        <f t="shared" si="18"/>
-        <v>0.20817583566846323</v>
-      </c>
-      <c r="AQ33">
-        <f t="shared" si="18"/>
-        <v>0.13670384937470803</v>
-      </c>
-      <c r="AR33">
-        <f t="shared" si="18"/>
-        <v>0.21031124699028214</v>
-      </c>
-    </row>
-    <row r="35" spans="5:45" x14ac:dyDescent="0.25">
-      <c r="F35">
-        <f>F31</f>
-        <v>1985</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:AS35" si="19">G31</f>
-        <v>1986</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="19"/>
-        <v>1987</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="19"/>
-        <v>1988</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="19"/>
-        <v>1989</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="19"/>
-        <v>1990</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="19"/>
-        <v>1991</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="19"/>
-        <v>1992</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="19"/>
-        <v>1993</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="19"/>
-        <v>1994</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="19"/>
-        <v>1995</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="19"/>
-        <v>1996</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="19"/>
-        <v>1997</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="19"/>
-        <v>1998</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="19"/>
-        <v>1999</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="19"/>
-        <v>2000</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="19"/>
-        <v>2001</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="19"/>
-        <v>2002</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="19"/>
-        <v>2003</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="19"/>
-        <v>2004</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="19"/>
-        <v>2005</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="19"/>
-        <v>2006</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="19"/>
-        <v>2007</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="19"/>
-        <v>2008</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="19"/>
-        <v>2009</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="19"/>
-        <v>2010</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="19"/>
-        <v>2011</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="19"/>
-        <v>2012</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="19"/>
-        <v>2013</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="19"/>
-        <v>2014</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="19"/>
-        <v>2015</v>
-      </c>
-      <c r="AK35">
-        <f t="shared" si="19"/>
-        <v>2016</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="19"/>
-        <v>2017</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" si="19"/>
-        <v>2019</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="19"/>
-        <v>2020</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="19"/>
-        <v>2021</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="19"/>
-        <v>2022</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="19"/>
-        <v>2023</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="19"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="36" spans="5:45" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36">
-        <f>F32</f>
-        <v>0.1865494036546671</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:AS36" si="20">G32</f>
-        <v>-2.6719576719576921E-2</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="20"/>
-        <v>-1.0745673643200115E-2</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="20"/>
-        <v>1.4654161781924024E-4</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="20"/>
-        <v>1.829353442256676E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="20"/>
-        <v>-7.4269179137596786E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="20"/>
-        <v>4.3053992118526674E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="20"/>
-        <v>-2.358333018237746E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="20"/>
-        <v>-1.3412398279741833E-2</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="20"/>
-        <v>2.3390348350905255E-2</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="20"/>
-        <v>0.13463154299127367</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="20"/>
-        <v>2.3869984297542945E-2</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="20"/>
-        <v>0.14182964475110449</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="20"/>
-        <v>9.0733550346858705E-2</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="20"/>
-        <v>8.60992895282644E-2</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="20"/>
-        <v>6.5314203725365561E-2</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="20"/>
-        <v>0.10484953369514649</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="20"/>
-        <v>8.2157538121878648E-3</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="20"/>
-        <v>1.2907373330943495E-2</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="20"/>
-        <v>0.11076231787342916</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="20"/>
-        <v>0.11430976973588525</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="20"/>
-        <v>0.18913513513513514</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="20"/>
-        <v>0.16971225964816572</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="20"/>
-        <v>-0.18387253473234233</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="20"/>
-        <v>-0.18291509928098659</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="20"/>
-        <v>-0.24118860579500689</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="20"/>
-        <v>3.9935795528727169E-3</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="20"/>
-        <v>-0.1038560686611234</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="20"/>
-        <v>9.5047459710461579E-2</v>
-      </c>
-      <c r="AJ36">
-        <f t="shared" si="20"/>
-        <v>9.02585608830202E-2</v>
-      </c>
-      <c r="AK36">
-        <f t="shared" si="20"/>
-        <v>-6.398981882659116E-2</v>
-      </c>
-      <c r="AL36">
-        <f t="shared" si="20"/>
-        <v>-1.5422102722356335E-2</v>
-      </c>
-      <c r="AM36">
-        <f t="shared" si="20"/>
-        <v>2.4841540144456387E-2</v>
-      </c>
-      <c r="AN36">
-        <f t="shared" si="20"/>
-        <v>-6.4194278533523663E-3</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="20"/>
-        <v>-6.6132829464156107E-3</v>
-      </c>
-      <c r="AP36">
-        <f t="shared" si="20"/>
-        <v>3.8870098095610706E-2</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="20"/>
-        <v>8.9766779130460383E-2</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="20"/>
-        <v>8.1247882934760485E-2</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="20"/>
-        <v>4.9999060168042009E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:45" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37">
-        <f>AVERAGE(E29:F29)</f>
-        <v>1.7263854463356916</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37:AS37" si="21">AVERAGE(F29:G29)</f>
-        <v>-0.28348002047298887</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="21"/>
-        <v>-0.51082581107004232</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="21"/>
-        <v>0.48483413870098946</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="21"/>
-        <v>1.6885538522974997</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="21"/>
-        <v>0.61619053248817357</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="21"/>
-        <v>-0.13290108901876108</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="21"/>
-        <v>-0.14312585235361347</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="21"/>
-        <v>-0.10125796928049974</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="21"/>
-        <v>7.0311566560465555E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="21"/>
-        <v>1.9024448840982311E-2</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="21"/>
-        <v>0.2679024053931508</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="21"/>
-        <v>0.20069627875458884</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="21"/>
-        <v>-0.2814790503988393</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="21"/>
-        <v>-0.27347143078470043</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="21"/>
-        <v>1.2631138431585756</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="21"/>
-        <v>1.3644865269761177</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="21"/>
-        <v>-0.18168449556321214</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="21"/>
-        <v>-0.42993350239804912</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="21"/>
-        <v>0.14446540747036452</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="21"/>
-        <v>0.47740829881402136</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="21"/>
-        <v>0.55175902944772537</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="21"/>
-        <v>0.15642079099132572</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="21"/>
-        <v>-0.25562984463218008</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="21"/>
-        <v>-0.64100962566883801</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="21"/>
-        <v>-8.1749735453436934</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="21"/>
-        <v>-7.5127576502794327</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="21"/>
-        <v>0.34221664784561956</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="21"/>
-        <v>0.18470500430965558</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="21"/>
-        <v>-0.22647290369230699</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="21"/>
-        <v>-0.28432006238159185</v>
-      </c>
-      <c r="AK37">
-        <f t="shared" si="21"/>
-        <v>-0.12111894140006463</v>
-      </c>
-      <c r="AL37">
-        <f t="shared" si="21"/>
-        <v>0.50943548581567211</v>
-      </c>
-      <c r="AM37">
-        <f t="shared" si="21"/>
-        <v>0.20490887186770934</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" si="21"/>
-        <v>0.67301286038580577</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="21"/>
-        <v>0.95786626754247539</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="21"/>
-        <v>-8.6695954061069447E-2</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="21"/>
-        <v>0.32506173595182825</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="21"/>
-        <v>0.27895374567399811</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="21"/>
-        <v>-8.3492837078341098E-2</v>
-      </c>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="16">
+        <f>D9*C8-(D8-C8)</f>
+        <v>-683.09498236700892</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:AS14" si="46">E9*D8-(E8-D8)</f>
+        <v>648.10760973160177</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="46"/>
+        <v>-4049.5384640582079</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="46"/>
+        <v>8641.5433467863513</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="46"/>
+        <v>8161.5391403128297</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="46"/>
+        <v>6435.3618241471522</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="46"/>
+        <v>5140.1423776247266</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="46"/>
+        <v>12008.295003631378</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="46"/>
+        <v>3056.3759935185735</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="46"/>
+        <v>7287.2104069411562</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="46"/>
+        <v>5405.4785635465487</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="46"/>
+        <v>3409.0058156359</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="46"/>
+        <v>-3287.5519148127514</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="46"/>
+        <v>3449.919604558967</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="46"/>
+        <v>-5826.7819476820077</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="46"/>
+        <v>-3395.3476524554681</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="46"/>
+        <v>-3361.3884253385086</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="46"/>
+        <v>-866.8786001874696</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="46"/>
+        <v>-5717.3658846254348</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="46"/>
+        <v>4950.9668685463384</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="46"/>
+        <v>3564.2306749217851</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="46"/>
+        <v>-8098.5063775198569</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="46"/>
+        <v>-10670.539058209324</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="46"/>
+        <v>-31362.088</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="46"/>
+        <v>-27060.53</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="46"/>
+        <v>-27889.729350000001</v>
+      </c>
+      <c r="AD14" s="16">
+        <f t="shared" si="46"/>
+        <v>56545.7624</v>
+      </c>
+      <c r="AE14" s="16">
+        <f t="shared" si="46"/>
+        <v>44531.801310000003</v>
+      </c>
+      <c r="AF14" s="16">
+        <f t="shared" si="46"/>
+        <v>46044.973420000002</v>
+      </c>
+      <c r="AG14" s="16">
+        <f t="shared" si="46"/>
+        <v>1244.33195</v>
+      </c>
+      <c r="AH14" s="16">
+        <f t="shared" si="46"/>
+        <v>15850.638768000001</v>
+      </c>
+      <c r="AI14" s="16">
+        <f t="shared" si="46"/>
+        <v>-9741.8284160000003</v>
+      </c>
+      <c r="AJ14" s="16">
+        <f t="shared" si="46"/>
+        <v>-10925.762596</v>
+      </c>
+      <c r="AK14" s="16">
+        <f t="shared" si="46"/>
+        <v>9332.2537780000002</v>
+      </c>
+      <c r="AL14" s="16">
+        <f t="shared" si="46"/>
+        <v>2364.8800719999999</v>
+      </c>
+      <c r="AM14" s="16">
+        <f t="shared" si="46"/>
+        <v>-2657.410175</v>
+      </c>
+      <c r="AN14" s="16">
+        <f t="shared" si="46"/>
+        <v>582.74520800000005</v>
+      </c>
+      <c r="AO14" s="16">
+        <f t="shared" si="46"/>
+        <v>346.27727499999992</v>
+      </c>
+      <c r="AP14" s="16">
+        <f t="shared" si="46"/>
+        <v>-5296.1702500000001</v>
+      </c>
+      <c r="AQ14" s="16">
+        <f t="shared" si="46"/>
+        <v>-10205.119325</v>
+      </c>
+      <c r="AR14" s="16">
+        <f t="shared" si="46"/>
+        <v>-8153.6638999999996</v>
+      </c>
+      <c r="AS14" s="16">
+        <f t="shared" si="46"/>
+        <v>-3828.7259700000004</v>
+      </c>
+      <c r="AT14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12598,6 +11232,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D7B8300B3AF1B47816F117AB132B39B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ddd8332b2f2c4a6681adf5c11ec9624">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9b00c0b4-e938-4f71-ab94-f7b193f91a70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f538849a4e2db9465f26668d380212fe" ns3:_="">
     <xsd:import namespace="9b00c0b4-e938-4f71-ab94-f7b193f91a70"/>
@@ -12779,22 +11428,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C87B53-7266-4E79-8414-9A586F0AC413}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9b00c0b4-e938-4f71-ab94-f7b193f91a70"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D3CA57-5F90-4E4A-93EB-D9EF96FF89E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB339D4-2BC8-48D1-B248-8535DA41B98F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12810,28 +11468,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D3CA57-5F90-4E4A-93EB-D9EF96FF89E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C87B53-7266-4E79-8414-9A586F0AC413}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9b00c0b4-e938-4f71-ab94-f7b193f91a70"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Diverse/Jordpris.xlsx
+++ b/Data/Diverse/Jordpris.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psp\LandbrugHistorieKalibrering\Data\Diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887EB732-BB79-4EDC-B02E-F204CA9A4998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045DCCE-8A98-4DDF-A419-33A76E565B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,35 @@
     <sheet name="Ark1" sheetId="4" r:id="rId2"/>
     <sheet name="DiagramInfo" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ark1'!$C$21:$F$21</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ark1'!$F$26</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Prices at agricultural input by unit, product and time</t>
   </si>
@@ -134,6 +163,9 @@
   </si>
   <si>
     <t>User-cost</t>
+  </si>
+  <si>
+    <t>Estimat</t>
   </si>
 </sst>
 </file>
@@ -4554,6 +4586,4090 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1862881488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nettoudbytte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$16:$AS$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$17:$AS$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3779325820940724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4668416940962647E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6724673748716126E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.802695628192523E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7356141374447026E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8512080260788955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2169033425252382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7689122213320994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2601546649525746E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9435912238697658E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9836162640552119E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6693244574351682E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3928971163886901E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0705880671947403E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6822511894636516E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8415817536961398E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1952106737545186E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2495583945475836E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2010417539692916E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2782187135679813E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6193918918918918E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1917297297297297E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1446883949270421E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4912076168269703E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5575448788152945E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7068812792838993E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1905705442788134E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3013562407728971E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0451379404534281E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7944608572965305E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5894070038465385E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.804470041858902E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7113819561355195E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2553539390911363E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.6765967497390499E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5490132916101021E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3722748447778162E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8632883950951841E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2298327725669317E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3664572182142581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76E7-4F29-92B3-ADCCEF00BBBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User-cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$16:$AS$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$18:$AS$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-1.3184461909008283E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1339079270658253E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9710454058166683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13091764066322389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12498876208968342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8539018315018517E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7292512342292841E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19505581435581887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7596776635347803E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11622428589177418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7384433099927578E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3850079530160341E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5769521667240513E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6910268333932637E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9388323481805264E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7070052841045073E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.3789994968327679E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.1799376136094983E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.8829756496084509E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.193968010113918E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9807885167000083E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.0974626869856413E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2098236879792735E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1695248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12300800036365289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.10838328708831245</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26925271368030096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25951538095293597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35362358531284321</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5184079278507455E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13529977096421744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.5937767786291674E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.8115929503953782E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1284287466772595E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8347052856156464E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.011680765940696E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4399296614882934E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6558468128513681E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.9100266886180242E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.9135690840728944E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.1087159389234534E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.2846744419183333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76E7-4F29-92B3-ADCCEF00BBBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1865237200"/>
+        <c:axId val="1865237680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1865237200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865237680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865237680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865237200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nettoudbytte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$23:$AS$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.962402531903998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9392208722609833E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.981227315945997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7042561063872506E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6377376941941222E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5009329264324818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6139385222831076E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8228795189010331E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3694570685887229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.585603993262703E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4192969787786132E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1256924228793358E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8959414260565041E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0599677329523962E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6663096299491072E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7959730452554173E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8509204654235953E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8821717519615066E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8759597323586909E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2048480651625626E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0081304757043497E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.640746614111969E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.436921001295491E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1392851663311646E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3422865935232694E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0228068177137614E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4584527657573203E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5765969716269519E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3695102827050636E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2546077813714214E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3889355066999714E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5732756136348109E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8118868824569078E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2987105705307218E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0316168181974454E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9243470587707172E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0158009524236237E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9399122358226684E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7297356731407745E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.644108088383525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User-cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$24:$AS$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-1.3184461909008283E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1339079270658253E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9710454058166683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13091764066322389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12498876208968342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8539018315018517E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7292512342292841E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19505581435581887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7596776635347803E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11622428589177418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7384433099927578E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3850079530160341E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5769521667240513E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6910268333932637E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9388323481805264E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7070052841045073E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.3789994968327679E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.1799376136094983E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.8829756496084509E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.193968010113918E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9807885167000083E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.0974626869856413E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2098236879792735E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1695248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12300800036365289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.10838328708831245</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26925271368030096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25951538095293597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35362358531284321</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5184079278507455E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13529977096421744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.5937767786291674E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.8115929503953782E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1284287466772595E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8347052856156464E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.011680765940696E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4399296614882934E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6558468128513681E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.9100266886180242E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.9135690840728944E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.1087159389234534E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.2846744419183333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$25:$AS$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="2">
+                  <c:v>1.7266522261096573E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2314208796357496E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3545061174846886E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6159322522321611E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2053326846445449E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2214244613947763E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5763693396536371E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2187816594826288E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2305518227129361E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6962059348494634E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0611791146286961E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0827171988364891E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5305357748916756E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6350168446533939E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2331079087079696E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.080154285630833E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.185357475525505E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6654263748063613E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8253709596982021E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7119006584257556E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9285948541694311E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0161616246033327E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6698651089617946E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6645241910219347E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2402092443860572E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9808945832198245E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1760884584259822E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9747945365048547E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8077280474112702E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9144134358580164E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3924582687505186E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3450863641864412E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.4070716822865377E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0885930603689591E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3285878701341041E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3138205299486061E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5529692053469181E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5086385124238019E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2250679705411397E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3855883044351619E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$26:$AS$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="2">
+                  <c:v>1.6131954605448258E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$28:$AS$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nettoudbytte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$29:$AS$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3779325820940724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4668416940962647E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6724673748716126E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.802695628192523E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7356141374447026E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8512080260788955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2169033425252382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7689122213320994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2601546649525746E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9435912238697658E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9836162640552119E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6693244574351682E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3928971163886901E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0705880671947403E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6822511894636516E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8415817536961398E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1952106737545186E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2495583945475836E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2010417539692916E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2782187135679813E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6193918918918918E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1917297297297297E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1446883949270421E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4912076168269703E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5575448788152945E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7068812792838993E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1905705442788134E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3013562407728971E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0451379404534281E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7944608572965305E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5894070038465385E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.804470041858902E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7113819561355195E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2553539390911363E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.6765967497390499E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5490132916101021E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3722748447778162E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8632883950951841E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2298327725669317E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3664572182142581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$D$20:$AS$22</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="42"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2007</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.038442931</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.016531754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$30:$AS$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.962402531903998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9392208722609833E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.981227315945997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7042561063872506E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6377376941941222E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5009329264324818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6139385222831076E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8228795189010331E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3694570685887229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.585603993262703E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4192969787786132E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1256924228793358E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8959414260565041E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0599677329523962E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6663096299491072E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7959730452554173E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8509204654235953E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8821717519615066E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8759597323586909E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2048480651625626E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0081304757043497E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.640746614111969E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.436921001295491E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1392851663311646E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3422865935232694E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0228068177137614E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4584527657573203E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5765969716269519E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3695102827050636E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2546077813714214E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3889355066999714E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5732756136348109E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8118868824569078E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2987105705307218E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0316168181974454E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9243470587707172E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0158009524236237E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9399122358226684E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7297356731407745E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.644108088383525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-06A7-4605-9F84-FBEE7F11C02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054458960"/>
+        <c:axId val="2054457040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054458960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054457040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054457040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054458960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nettoudbytte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$28:$AS$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$29:$AS$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3779325820940724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4668416940962647E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6724673748716126E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.802695628192523E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7356141374447026E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8512080260788955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2169033425252382E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7689122213320994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2601546649525746E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9435912238697658E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9836162640552119E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6693244574351682E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3928971163886901E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0705880671947403E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6822511894636516E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8415817536961398E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1952106737545186E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2495583945475836E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2010417539692916E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2782187135679813E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6193918918918918E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1917297297297297E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1446883949270421E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4912076168269703E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5575448788152945E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7068812792838993E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1905705442788134E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3013562407728971E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0451379404534281E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7944608572965305E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5894070038465385E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.804470041858902E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7113819561355195E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2553539390911363E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.6765967497390499E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5490132916101021E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3722748447778162E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8632883950951841E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.2298327725669317E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3664572182142581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34AD-45BF-A65A-5DA78BC56EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$D$28:$AS$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$30:$AS$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.2941365312562722E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5492777882314964E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.962402531903998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9392208722609833E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.981227315945997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7042561063872506E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6377376941941222E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5009329264324818E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6139385222831076E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8228795189010331E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3694570685887229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.585603993262703E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4192969787786132E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1256924228793358E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8959414260565041E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0599677329523962E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6663096299491072E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7959730452554173E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8509204654235953E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8821717519615066E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8759597323586909E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2048480651625626E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0081304757043497E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.640746614111969E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.436921001295491E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1392851663311646E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3422865935232694E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0228068177137614E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4584527657573203E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5765969716269519E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3695102827050636E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2546077813714214E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3889355066999714E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5732756136348109E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8118868824569078E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2987105705307218E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0316168181974454E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9243470587707172E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0158009524236237E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9399122358226684E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7297356731407745E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.644108088383525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34AD-45BF-A65A-5DA78BC56EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1666395024"/>
+        <c:axId val="1666400304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1666395024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666400304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1666400304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666395024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4800,6 +8916,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6349,6 +10585,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7112,16 +12896,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7141,6 +12925,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926C541-B209-B051-E36B-87A50903EDF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D0E3BF-C46E-3A72-EF4B-6528E2B446BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCC369C-57FB-BB00-1399-E0BBA14435E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9255,10 +15147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F17FB7-582E-429E-9D18-6DB1AD9E632F}">
-  <dimension ref="A2:BB14"/>
+  <dimension ref="A2:BB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10872,6 +16764,1745 @@
         <v>-3828.7259700000004</v>
       </c>
       <c r="AT14" s="16"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1983</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="47">D16+1</f>
+        <v>1984</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="48">E16+1</f>
+        <v>1985</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="49">F16+1</f>
+        <v>1986</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="50">G16+1</f>
+        <v>1987</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16" si="51">H16+1</f>
+        <v>1988</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="52">I16+1</f>
+        <v>1989</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="53">J16+1</f>
+        <v>1990</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="54">K16+1</f>
+        <v>1991</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="55">L16+1</f>
+        <v>1992</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16" si="56">M16+1</f>
+        <v>1993</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16" si="57">N16+1</f>
+        <v>1994</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="58">O16+1</f>
+        <v>1995</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="59">P16+1</f>
+        <v>1996</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16" si="60">Q16+1</f>
+        <v>1997</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16" si="61">R16+1</f>
+        <v>1998</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16" si="62">S16+1</f>
+        <v>1999</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16" si="63">T16+1</f>
+        <v>2000</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16" si="64">U16+1</f>
+        <v>2001</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16" si="65">V16+1</f>
+        <v>2002</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16" si="66">W16+1</f>
+        <v>2003</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ref="Y16" si="67">X16+1</f>
+        <v>2004</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ref="Z16" si="68">Y16+1</f>
+        <v>2005</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16" si="69">Z16+1</f>
+        <v>2006</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ref="AB16" si="70">AA16+1</f>
+        <v>2007</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" ref="AC16" si="71">AB16+1</f>
+        <v>2008</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" ref="AD16" si="72">AC16+1</f>
+        <v>2009</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" ref="AE16" si="73">AD16+1</f>
+        <v>2010</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" ref="AF16" si="74">AE16+1</f>
+        <v>2011</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16" si="75">AF16+1</f>
+        <v>2012</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" ref="AH16" si="76">AG16+1</f>
+        <v>2013</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" ref="AI16" si="77">AH16+1</f>
+        <v>2014</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" ref="AJ16" si="78">AI16+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" ref="AK16" si="79">AJ16+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" ref="AL16" si="80">AK16+1</f>
+        <v>2017</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" ref="AM16" si="81">AL16+1</f>
+        <v>2018</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" ref="AN16" si="82">AM16+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" ref="AO16" si="83">AN16+1</f>
+        <v>2020</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" ref="AP16" si="84">AO16+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" ref="AQ16" si="85">AP16+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" ref="AR16" si="86">AQ16+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" ref="AS16" si="87">AR16+1</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <f>D13/D8</f>
+        <v>1.2941365312562722E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:AS17" si="88">E13/E8</f>
+        <v>5.5492777882314964E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="88"/>
+        <v>3.3779325820940724E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="88"/>
+        <v>2.4668416940962647E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="88"/>
+        <v>6.6724673748716126E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="88"/>
+        <v>1.802695628192523E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="88"/>
+        <v>4.7356141374447026E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="88"/>
+        <v>2.8512080260788955E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="88"/>
+        <v>3.2169033425252382E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="88"/>
+        <v>1.7689122213320994E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="88"/>
+        <v>2.2601546649525746E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="88"/>
+        <v>1.9435912238697658E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="88"/>
+        <v>1.9836162640552119E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="88"/>
+        <v>2.6693244574351682E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="88"/>
+        <v>2.3928971163886901E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="88"/>
+        <v>9.0705880671947403E-3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="88"/>
+        <v>8.6822511894636516E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="88"/>
+        <v>2.8415817536961398E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="88"/>
+        <v>3.1952106737545186E-2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="88"/>
+        <v>1.2495583945475836E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="88"/>
+        <v>9.2010417539692916E-3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="88"/>
+        <v>1.2782187135679813E-2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="88"/>
+        <v>1.6193918918918918E-2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="88"/>
+        <v>2.1917297297297297E-2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="88"/>
+        <v>1.1446883949270421E-2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="88"/>
+        <v>8.4912076168269703E-3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="88"/>
+        <v>-1.5575448788152945E-3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="88"/>
+        <v>2.7068812792838993E-2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="88"/>
+        <v>4.1905705442788134E-2</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="88"/>
+        <v>6.3013562407728971E-2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="88"/>
+        <v>6.0451379404534281E-2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="88"/>
+        <v>3.7944608572965305E-2</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="88"/>
+        <v>2.5894070038465385E-2</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="88"/>
+        <v>2.804470041858902E-2</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="88"/>
+        <v>5.7113819561355195E-2</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="88"/>
+        <v>2.2553539390911363E-2</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="88"/>
+        <v>6.6765967497390499E-2</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="88"/>
+        <v>6.5490132916101021E-2</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="88"/>
+        <v>5.3722748447778162E-2</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="88"/>
+        <v>8.8632883950951841E-2</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="88"/>
+        <v>6.2298327725669317E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="88"/>
+        <v>6.3664572182142581E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <f>D14/D8</f>
+        <v>-1.3184461909008283E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:AS18" si="89">E14/E8</f>
+        <v>1.1339079270658253E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="89"/>
+        <v>-5.9710454058166683E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="89"/>
+        <v>0.13091764066322389</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="89"/>
+        <v>0.12498876208968342</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="89"/>
+        <v>9.8539018315018517E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="89"/>
+        <v>7.7292512342292841E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="89"/>
+        <v>0.19505581435581887</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="89"/>
+        <v>4.7596776635347803E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="89"/>
+        <v>0.11622428589177418</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="89"/>
+        <v>8.7384433099927578E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="89"/>
+        <v>5.3850079530160341E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="89"/>
+        <v>-4.5769521667240513E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="89"/>
+        <v>4.6910268333932637E-2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="89"/>
+        <v>-6.9388323481805264E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="89"/>
+        <v>-3.7070052841045073E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="89"/>
+        <v>-3.3789994968327679E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="89"/>
+        <v>-8.1799376136094983E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="89"/>
+        <v>-4.8829756496084509E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="89"/>
+        <v>4.193968010113918E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="89"/>
+        <v>2.9807885167000083E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="89"/>
+        <v>-6.0974626869856413E-2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="89"/>
+        <v>-7.2098236879792735E-2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="89"/>
+        <v>-0.1695248</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="89"/>
+        <v>-0.12300800036365289</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="89"/>
+        <v>-0.10838328708831245</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="89"/>
+        <v>0.26925271368030096</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="89"/>
+        <v>0.25951538095293597</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="89"/>
+        <v>0.35362358531284321</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="89"/>
+        <v>9.5184079278507455E-3</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="89"/>
+        <v>0.13529977096421744</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="89"/>
+        <v>-7.5937767786291674E-2</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="89"/>
+        <v>-7.8115929503953782E-2</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="89"/>
+        <v>7.1284287466772595E-2</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="89"/>
+        <v>1.8347052856156464E-2</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="89"/>
+        <v>-2.011680765940696E-2</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="89"/>
+        <v>4.4399296614882934E-3</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="89"/>
+        <v>2.6558468128513681E-3</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="89"/>
+        <v>-3.9100266886180242E-2</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="89"/>
+        <v>-6.9135690840728944E-2</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="89"/>
+        <v>-5.1087159389234534E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="89"/>
+        <v>-2.2846744419183333E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>-2</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2.9943419809523801E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.8442930860564474E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.6531753826168318E-2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1983</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="90">D22+1</f>
+        <v>1984</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="91">E22+1</f>
+        <v>1985</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="92">F22+1</f>
+        <v>1986</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="93">G22+1</f>
+        <v>1987</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="94">H22+1</f>
+        <v>1988</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="95">I22+1</f>
+        <v>1989</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22" si="96">J22+1</f>
+        <v>1990</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="97">K22+1</f>
+        <v>1991</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22" si="98">L22+1</f>
+        <v>1992</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22" si="99">M22+1</f>
+        <v>1993</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="100">N22+1</f>
+        <v>1994</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="101">O22+1</f>
+        <v>1995</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22" si="102">P22+1</f>
+        <v>1996</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22" si="103">Q22+1</f>
+        <v>1997</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22" si="104">R22+1</f>
+        <v>1998</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22" si="105">S22+1</f>
+        <v>1999</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22" si="106">T22+1</f>
+        <v>2000</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22" si="107">U22+1</f>
+        <v>2001</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22" si="108">V22+1</f>
+        <v>2002</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22" si="109">W22+1</f>
+        <v>2003</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y22" si="110">X22+1</f>
+        <v>2004</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="111">Y22+1</f>
+        <v>2005</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ref="AA22" si="112">Z22+1</f>
+        <v>2006</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ref="AB22" si="113">AA22+1</f>
+        <v>2007</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ref="AC22" si="114">AB22+1</f>
+        <v>2008</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" ref="AD22" si="115">AC22+1</f>
+        <v>2009</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" ref="AE22" si="116">AD22+1</f>
+        <v>2010</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" ref="AF22" si="117">AE22+1</f>
+        <v>2011</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" ref="AG22" si="118">AF22+1</f>
+        <v>2012</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" ref="AH22" si="119">AG22+1</f>
+        <v>2013</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" ref="AI22" si="120">AH22+1</f>
+        <v>2014</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" ref="AJ22" si="121">AI22+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" ref="AK22" si="122">AJ22+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" ref="AL22" si="123">AK22+1</f>
+        <v>2017</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" ref="AM22" si="124">AL22+1</f>
+        <v>2018</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" ref="AN22" si="125">AM22+1</f>
+        <v>2019</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" ref="AO22" si="126">AN22+1</f>
+        <v>2020</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" ref="AP22" si="127">AO22+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" ref="AQ22" si="128">AP22+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" ref="AR22" si="129">AQ22+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" ref="AS22" si="130">AR22+1</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <f>D17</f>
+        <v>1.2941365312562722E-2</v>
+      </c>
+      <c r="E23">
+        <f>E17</f>
+        <v>5.5492777882314964E-2</v>
+      </c>
+      <c r="F23">
+        <f>$F$21*F24+$E$21*E24+$D$21*D24+$C$21</f>
+        <v>2.962402531903998E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:AS23" si="131">$F$21*G24+$E$21*F24+$D$21*E24+$C$21</f>
+        <v>2.9392208722609833E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="131"/>
+        <v>2.981227315945997E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="131"/>
+        <v>3.7042561063872506E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="131"/>
+        <v>3.6377376941941222E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="131"/>
+        <v>3.5009329264324818E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="131"/>
+        <v>3.6139385222831076E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="131"/>
+        <v>3.8228795189010331E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="131"/>
+        <v>3.3694570685887229E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="131"/>
+        <v>3.585603993262703E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="131"/>
+        <v>3.4192969787786132E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="131"/>
+        <v>3.1256924228793358E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="131"/>
+        <v>2.8959414260565041E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="131"/>
+        <v>3.0599677329523962E-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="131"/>
+        <v>2.6663096299491072E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="131"/>
+        <v>2.7959730452554173E-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="131"/>
+        <v>2.8509204654235953E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="131"/>
+        <v>2.8821717519615066E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="131"/>
+        <v>2.8759597323586909E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="131"/>
+        <v>3.2048480651625626E-2</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="131"/>
+        <v>3.0081304757043497E-2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="131"/>
+        <v>2.640746614111969E-2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="131"/>
+        <v>2.436921001295491E-2</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="131"/>
+        <v>2.1392851663311646E-2</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="131"/>
+        <v>2.3422865935232694E-2</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="131"/>
+        <v>3.0228068177137614E-2</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="131"/>
+        <v>4.4584527657573203E-2</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="131"/>
+        <v>4.5765969716269519E-2</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="131"/>
+        <v>4.3695102827050636E-2</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="131"/>
+        <v>3.2546077813714214E-2</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="131"/>
+        <v>3.3889355066999714E-2</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="131"/>
+        <v>2.5732756136348109E-2</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="131"/>
+        <v>2.8118868824569078E-2</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="131"/>
+        <v>3.2987105705307218E-2</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="131"/>
+        <v>3.0316168181974454E-2</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="131"/>
+        <v>2.9243470587707172E-2</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="131"/>
+        <v>3.0158009524236237E-2</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="131"/>
+        <v>2.9399122358226684E-2</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="131"/>
+        <v>2.7297356731407745E-2</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="131"/>
+        <v>2.644108088383525E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f>D18</f>
+        <v>-1.3184461909008283E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:AS24" si="132">E18</f>
+        <v>1.1339079270658253E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="132"/>
+        <v>-5.9710454058166683E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="132"/>
+        <v>0.13091764066322389</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="132"/>
+        <v>0.12498876208968342</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="132"/>
+        <v>9.8539018315018517E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="132"/>
+        <v>7.7292512342292841E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="132"/>
+        <v>0.19505581435581887</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="132"/>
+        <v>4.7596776635347803E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="132"/>
+        <v>0.11622428589177418</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="132"/>
+        <v>8.7384433099927578E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="132"/>
+        <v>5.3850079530160341E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="132"/>
+        <v>-4.5769521667240513E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="132"/>
+        <v>4.6910268333932637E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="132"/>
+        <v>-6.9388323481805264E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="132"/>
+        <v>-3.7070052841045073E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="132"/>
+        <v>-3.3789994968327679E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="132"/>
+        <v>-8.1799376136094983E-3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="132"/>
+        <v>-4.8829756496084509E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="132"/>
+        <v>4.193968010113918E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="132"/>
+        <v>2.9807885167000083E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="132"/>
+        <v>-6.0974626869856413E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="132"/>
+        <v>-7.2098236879792735E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="132"/>
+        <v>-0.1695248</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="132"/>
+        <v>-0.12300800036365289</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="132"/>
+        <v>-0.10838328708831245</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="132"/>
+        <v>0.26925271368030096</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="132"/>
+        <v>0.25951538095293597</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="132"/>
+        <v>0.35362358531284321</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="132"/>
+        <v>9.5184079278507455E-3</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="132"/>
+        <v>0.13529977096421744</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="132"/>
+        <v>-7.5937767786291674E-2</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="132"/>
+        <v>-7.8115929503953782E-2</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="132"/>
+        <v>7.1284287466772595E-2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="132"/>
+        <v>1.8347052856156464E-2</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="132"/>
+        <v>-2.011680765940696E-2</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="132"/>
+        <v>4.4399296614882934E-3</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="132"/>
+        <v>2.6558468128513681E-3</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="132"/>
+        <v>-3.9100266886180242E-2</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="132"/>
+        <v>-6.9135690840728944E-2</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="132"/>
+        <v>-5.1087159389234534E-2</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="132"/>
+        <v>-2.2846744419183333E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>(F23-F17)^2</f>
+        <v>1.7266522261096573E-5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:AS25" si="133">(G23-G17)^2</f>
+        <v>2.2314208796357496E-5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="133"/>
+        <v>5.3545061174846886E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="133"/>
+        <v>3.6159322522321611E-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="133"/>
+        <v>1.2053326846445449E-4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="133"/>
+        <v>4.2214244613947763E-5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="133"/>
+        <v>1.5763693396536371E-5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="133"/>
+        <v>4.2187816594826288E-4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="133"/>
+        <v>1.2305518227129361E-4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="133"/>
+        <v>2.6962059348494634E-4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="133"/>
+        <v>2.0611791146286961E-4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="133"/>
+        <v>2.0827171988364891E-5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="133"/>
+        <v>2.5305357748916756E-5</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="133"/>
+        <v>4.6350168446533939E-4</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="133"/>
+        <v>3.2331079087079696E-4</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="133"/>
+        <v>2.080154285630833E-7</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="133"/>
+        <v>1.185357475525505E-5</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="133"/>
+        <v>2.6654263748063613E-4</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="133"/>
+        <v>3.8253709596982021E-4</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="133"/>
+        <v>3.7119006584257556E-4</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="133"/>
+        <v>1.9285948541694311E-4</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="133"/>
+        <v>2.0161616246033327E-5</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="133"/>
+        <v>1.6698651089617946E-4</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="133"/>
+        <v>1.6645241910219347E-4</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="133"/>
+        <v>6.2402092443860572E-4</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="133"/>
+        <v>9.9808945832198245E-6</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="133"/>
+        <v>7.1760884584259822E-6</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="133"/>
+        <v>2.9747945365048547E-4</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="133"/>
+        <v>2.8077280474112702E-4</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="133"/>
+        <v>2.9144134358580164E-5</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="133"/>
+        <v>6.3924582687505186E-5</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="133"/>
+        <v>5.3450863641864412E-6</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="133"/>
+        <v>8.4070716822865377E-4</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="133"/>
+        <v>1.0885930603689591E-4</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="133"/>
+        <v>1.3285878701341041E-3</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="133"/>
+        <v>1.3138205299486061E-3</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="133"/>
+        <v>5.5529692053469181E-4</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="133"/>
+        <v>3.5086385124238019E-3</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="133"/>
+        <v>1.2250679705411397E-3</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="133"/>
+        <v>1.3855883044351619E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>SUM(F25:AS25)</f>
+        <v>1.6131954605448258E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>D22</f>
+        <v>1983</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:AS28" si="134">E22</f>
+        <v>1984</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="134"/>
+        <v>1985</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="134"/>
+        <v>1986</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="134"/>
+        <v>1987</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="134"/>
+        <v>1988</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="134"/>
+        <v>1989</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="134"/>
+        <v>1990</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="134"/>
+        <v>1991</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="134"/>
+        <v>1992</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="134"/>
+        <v>1993</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="134"/>
+        <v>1994</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="134"/>
+        <v>1995</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="134"/>
+        <v>1996</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="134"/>
+        <v>1997</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="134"/>
+        <v>1998</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="134"/>
+        <v>1999</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="134"/>
+        <v>2000</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="134"/>
+        <v>2001</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="134"/>
+        <v>2002</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="134"/>
+        <v>2003</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="134"/>
+        <v>2004</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="134"/>
+        <v>2005</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="134"/>
+        <v>2006</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="134"/>
+        <v>2007</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="134"/>
+        <v>2008</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="134"/>
+        <v>2009</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="134"/>
+        <v>2010</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="134"/>
+        <v>2011</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="134"/>
+        <v>2012</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="134"/>
+        <v>2013</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="134"/>
+        <v>2014</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="134"/>
+        <v>2015</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="134"/>
+        <v>2016</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="134"/>
+        <v>2017</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="134"/>
+        <v>2018</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="134"/>
+        <v>2019</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="134"/>
+        <v>2020</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="134"/>
+        <v>2021</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="134"/>
+        <v>2022</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="134"/>
+        <v>2023</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="134"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <f>D17</f>
+        <v>1.2941365312562722E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:AS29" si="135">E17</f>
+        <v>5.5492777882314964E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="135"/>
+        <v>3.3779325820940724E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="135"/>
+        <v>2.4668416940962647E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="135"/>
+        <v>6.6724673748716126E-3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="135"/>
+        <v>1.802695628192523E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="135"/>
+        <v>4.7356141374447026E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="135"/>
+        <v>2.8512080260788955E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="135"/>
+        <v>3.2169033425252382E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="135"/>
+        <v>1.7689122213320994E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="135"/>
+        <v>2.2601546649525746E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="135"/>
+        <v>1.9435912238697658E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="135"/>
+        <v>1.9836162640552119E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="135"/>
+        <v>2.6693244574351682E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="135"/>
+        <v>2.3928971163886901E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="135"/>
+        <v>9.0705880671947403E-3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="135"/>
+        <v>8.6822511894636516E-3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="135"/>
+        <v>2.8415817536961398E-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="135"/>
+        <v>3.1952106737545186E-2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="135"/>
+        <v>1.2495583945475836E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="135"/>
+        <v>9.2010417539692916E-3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="135"/>
+        <v>1.2782187135679813E-2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="135"/>
+        <v>1.6193918918918918E-2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="135"/>
+        <v>2.1917297297297297E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="135"/>
+        <v>1.1446883949270421E-2</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="135"/>
+        <v>8.4912076168269703E-3</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="135"/>
+        <v>-1.5575448788152945E-3</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="135"/>
+        <v>2.7068812792838993E-2</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="135"/>
+        <v>4.1905705442788134E-2</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="135"/>
+        <v>6.3013562407728971E-2</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="135"/>
+        <v>6.0451379404534281E-2</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="135"/>
+        <v>3.7944608572965305E-2</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="135"/>
+        <v>2.5894070038465385E-2</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="135"/>
+        <v>2.804470041858902E-2</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="135"/>
+        <v>5.7113819561355195E-2</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="135"/>
+        <v>2.2553539390911363E-2</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="135"/>
+        <v>6.6765967497390499E-2</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="135"/>
+        <v>6.5490132916101021E-2</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="135"/>
+        <v>5.3722748447778162E-2</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="135"/>
+        <v>8.8632883950951841E-2</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="135"/>
+        <v>6.2298327725669317E-2</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="135"/>
+        <v>6.3664572182142581E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <f>D23</f>
+        <v>1.2941365312562722E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:AS30" si="136">E23</f>
+        <v>5.5492777882314964E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="136"/>
+        <v>2.962402531903998E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="136"/>
+        <v>2.9392208722609833E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="136"/>
+        <v>2.981227315945997E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="136"/>
+        <v>3.7042561063872506E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="136"/>
+        <v>3.6377376941941222E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="136"/>
+        <v>3.5009329264324818E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="136"/>
+        <v>3.6139385222831076E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="136"/>
+        <v>3.8228795189010331E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="136"/>
+        <v>3.3694570685887229E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="136"/>
+        <v>3.585603993262703E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="136"/>
+        <v>3.4192969787786132E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="136"/>
+        <v>3.1256924228793358E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="136"/>
+        <v>2.8959414260565041E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="136"/>
+        <v>3.0599677329523962E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="136"/>
+        <v>2.6663096299491072E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="136"/>
+        <v>2.7959730452554173E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="136"/>
+        <v>2.8509204654235953E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="136"/>
+        <v>2.8821717519615066E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="136"/>
+        <v>2.8759597323586909E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="136"/>
+        <v>3.2048480651625626E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="136"/>
+        <v>3.0081304757043497E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="136"/>
+        <v>2.640746614111969E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="136"/>
+        <v>2.436921001295491E-2</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="136"/>
+        <v>2.1392851663311646E-2</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="136"/>
+        <v>2.3422865935232694E-2</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="136"/>
+        <v>3.0228068177137614E-2</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="136"/>
+        <v>4.4584527657573203E-2</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="136"/>
+        <v>4.5765969716269519E-2</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="136"/>
+        <v>4.3695102827050636E-2</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="136"/>
+        <v>3.2546077813714214E-2</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="136"/>
+        <v>3.3889355066999714E-2</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="136"/>
+        <v>2.5732756136348109E-2</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="136"/>
+        <v>2.8118868824569078E-2</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="136"/>
+        <v>3.2987105705307218E-2</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="136"/>
+        <v>3.0316168181974454E-2</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="136"/>
+        <v>2.9243470587707172E-2</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="136"/>
+        <v>3.0158009524236237E-2</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="136"/>
+        <v>2.9399122358226684E-2</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="136"/>
+        <v>2.7297356731407745E-2</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="136"/>
+        <v>2.644108088383525E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
